--- a/data/rings_base_invest/Power_Parameters.xlsx
+++ b/data/rings_base_invest/Power_Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Malacek\Code\LEGO-Pyomo\data\rings_base_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Malacek\Code\LEGO-Pyomo\data\rings_base_invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76490811-319E-4C65-9999-4C32B4DFFEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20504A-BD09-4796-9633-97E4F013FD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="958" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Parameters" sheetId="121" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
   <dimension ref="B1:H76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1306,7 +1306,7 @@
         <v>80</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>81</v>
@@ -1831,6 +1831,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -1976,22 +1991,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2007,28 +2031,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>